--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_TIMRA/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45126</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45127</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
